--- a/PES/SRB Invoices/1038  SST Invoice for UEP (Final).xlsx
+++ b/PES/SRB Invoices/1038  SST Invoice for UEP (Final).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\SRB Invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C219F77-8A7D-4155-9413-866DA5BCCCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BA102C-A67F-4FFE-9A62-B59442DA9EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,9 +427,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -451,6 +448,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -472,53 +517,8 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="94" zoomScaleNormal="100" zoomScaleSheetLayoutView="94" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="94" zoomScaleNormal="100" zoomScaleSheetLayoutView="94" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -922,16 +922,16 @@
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -951,11 +951,11 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="54" t="s">
+      <c r="F13" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -964,11 +964,11 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
       <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -988,85 +988,85 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="58" t="s">
+      <c r="F16" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
       <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="32"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="57" t="s">
+      <c r="G17" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="57"/>
+      <c r="H17" s="49"/>
       <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="33"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="32"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="59" t="s">
+      <c r="G18" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="59"/>
+      <c r="H18" s="51"/>
       <c r="L18" s="8"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="50"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="23"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
       <c r="L19" s="8"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="33"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="51" t="s">
+      <c r="G20" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="50"/>
+      <c r="H20" s="42"/>
       <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1091,11 +1091,11 @@
       <c r="A24" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="53"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="45"/>
       <c r="E24" s="27" t="s">
         <v>12</v>
       </c>
@@ -1105,13 +1105,13 @@
       <c r="G24" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="30" t="s">
+      <c r="H24" s="62" t="s">
         <v>18</v>
       </c>
       <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="9"/>
@@ -1122,10 +1122,10 @@
       <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="54"/>
       <c r="E26" s="9"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -1133,10 +1133,10 @@
       <c r="L26" s="8"/>
     </row>
     <row r="27" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="62"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="54"/>
       <c r="E27" s="9"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -1145,25 +1145,25 @@
       <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="48">
+      <c r="A28" s="40">
         <v>1</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="44">
+      <c r="C28" s="57"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59">
         <v>10190075</v>
       </c>
-      <c r="F28" s="45">
+      <c r="F28" s="60">
         <v>0.13</v>
       </c>
-      <c r="G28" s="46">
+      <c r="G28" s="61">
         <f>E28*13%</f>
         <v>1324709.75</v>
       </c>
-      <c r="H28" s="56">
+      <c r="H28" s="48">
         <f>E28+G28</f>
         <v>11514784.75</v>
       </c>
@@ -1172,21 +1172,21 @@
       <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="56"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="48"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="38"/>
+      <c r="J29" s="37"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
     </row>
     <row r="30" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="23"/>
       <c r="C30" s="3"/>
       <c r="D30" s="9"/>
@@ -1194,14 +1194,14 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="24"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39">
+      <c r="J30" s="37"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38">
         <v>20962132</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="6"/>
       <c r="C31" s="3"/>
       <c r="D31" s="9"/>
@@ -1209,17 +1209,17 @@
       <c r="F31" s="12"/>
       <c r="G31" s="13"/>
       <c r="H31" s="25"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="39" t="s">
+      <c r="J31" s="37"/>
+      <c r="K31" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="L31" s="39">
+      <c r="L31" s="38">
         <f>L30*30%</f>
         <v>6288639.5999999996</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="6"/>
       <c r="C32" s="3"/>
       <c r="D32" s="9"/>
@@ -1228,14 +1228,14 @@
       <c r="G32" s="7"/>
       <c r="H32" s="24"/>
       <c r="J32" s="10"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39">
+      <c r="K32" s="38"/>
+      <c r="L32" s="38">
         <f>L30-L31</f>
         <v>14673492.4</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="37"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="9"/>
@@ -1243,16 +1243,16 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="24"/>
-      <c r="K33" s="39" t="s">
+      <c r="K33" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="L33" s="39">
+      <c r="L33" s="38">
         <f>L32*70%</f>
         <v>10271444.68</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="37"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="9"/>
@@ -1260,15 +1260,15 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="24"/>
-      <c r="K34" s="39" t="s">
+      <c r="K34" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="L34" s="39">
+      <c r="L34" s="38">
         <v>7998800</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="37"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="9"/>
@@ -1276,21 +1276,21 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="24"/>
-      <c r="K35" s="39" t="s">
+      <c r="K35" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="L35" s="39">
+      <c r="L35" s="38">
         <f>L34*18%</f>
         <v>1439784</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="31"/>
-      <c r="B36" s="40" t="s">
+      <c r="A36" s="30"/>
+      <c r="B36" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="40"/>
-      <c r="D36" s="41"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="56"/>
       <c r="E36" s="16">
         <f>SUM(E28:E34)</f>
         <v>10190075</v>
@@ -1304,10 +1304,10 @@
         <f>SUM(H28:H34)</f>
         <v>11514784.75</v>
       </c>
-      <c r="K36" s="39" t="s">
+      <c r="K36" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="L36" s="39">
+      <c r="L36" s="38">
         <f>L34*4%</f>
         <v>319952</v>
       </c>
@@ -1317,10 +1317,10 @@
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="K37" s="39" t="s">
+      <c r="K37" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="L37" s="39">
+      <c r="L37" s="38">
         <f>L36+L35+L34</f>
         <v>9758536</v>
       </c>
@@ -1330,34 +1330,34 @@
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
     </row>
     <row r="39" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
       <c r="B39" s="3"/>
       <c r="C39" s="15"/>
       <c r="D39" s="3"/>
-      <c r="K39" s="39" t="s">
+      <c r="K39" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="L39" s="39"/>
+      <c r="L39" s="38"/>
     </row>
     <row r="40" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
     </row>
     <row r="41" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="6"/>
       <c r="D41" s="3"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39">
+      <c r="K41" s="38"/>
+      <c r="L41" s="38">
         <v>7998800</v>
       </c>
     </row>
@@ -1366,10 +1366,10 @@
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="K42" s="39" t="s">
+      <c r="K42" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="L42" s="39">
+      <c r="L42" s="38">
         <f>L41*13%</f>
         <v>1039844</v>
       </c>
@@ -1379,7 +1379,7 @@
       <c r="K46" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L46" s="38">
+      <c r="L46" s="37">
         <f>G28</f>
         <v>1324709.75</v>
       </c>
@@ -1388,7 +1388,7 @@
       <c r="K47" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L47" s="38">
+      <c r="L47" s="37">
         <f>L42</f>
         <v>1039844</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="K48" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L48" s="38">
+      <c r="L48" s="37">
         <f>L46-L47</f>
         <v>284865.75</v>
       </c>
@@ -1410,6 +1410,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B18:C18"/>
@@ -1426,11 +1431,6 @@
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B26:D27"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/PES/SRB Invoices/1038  SST Invoice for UEP (Final).xlsx
+++ b/PES/SRB Invoices/1038  SST Invoice for UEP (Final).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\SRB Invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BA102C-A67F-4FFE-9A62-B59442DA9EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0C17DE-DA8E-45BC-A169-5E44078CD509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>RATE</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>Dated: 06-05-2024</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>SST</t>
   </si>
 </sst>
 </file>
@@ -370,7 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -448,6 +454,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -496,30 +526,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -543,15 +553,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>324255</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>30399</xdr:rowOff>
+      <xdr:colOff>445851</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>20266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>67254</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>102820</xdr:rowOff>
+      <xdr:colOff>188850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>508140</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -574,7 +584,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7366675" y="1449016"/>
+          <a:off x="7488271" y="222926"/>
           <a:ext cx="7059010" cy="7773485"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -874,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A6:L51"/>
+  <dimension ref="A6:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="94" zoomScaleNormal="100" zoomScaleSheetLayoutView="94" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="94" zoomScaleNormal="100" zoomScaleSheetLayoutView="94" workbookViewId="0">
+      <selection activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -894,7 +904,9 @@
     <col min="10" max="10" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="23.42578125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -922,16 +934,16 @@
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -951,11 +963,11 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -964,11 +976,11 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
       <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -988,85 +1000,85 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
       <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="52"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="31"/>
       <c r="E17" s="4"/>
       <c r="F17" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="49"/>
+      <c r="H17" s="57"/>
       <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="41"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="32"/>
       <c r="E18" s="3"/>
       <c r="F18" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="51"/>
+      <c r="H18" s="59"/>
       <c r="L18" s="8"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="42"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="23"/>
       <c r="E19" s="3"/>
       <c r="F19" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
       <c r="L19" s="8"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="43"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="33"/>
       <c r="E20" s="3"/>
       <c r="F20" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="G20" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="42"/>
+      <c r="H20" s="50"/>
       <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1091,11 +1103,11 @@
       <c r="A24" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="45"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="27" t="s">
         <v>12</v>
       </c>
@@ -1105,7 +1117,7 @@
       <c r="G24" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="62" t="s">
+      <c r="H24" s="39" t="s">
         <v>18</v>
       </c>
       <c r="L24" s="8"/>
@@ -1123,9 +1135,9 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="54"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="62"/>
       <c r="E26" s="9"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -1134,9 +1146,9 @@
     </row>
     <row r="27" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="36"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="54"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="62"/>
       <c r="E27" s="9"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -1145,25 +1157,25 @@
       <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="40">
+      <c r="A28" s="48">
         <v>1</v>
       </c>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="59">
+      <c r="C28" s="42"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="44">
         <v>10190075</v>
       </c>
-      <c r="F28" s="60">
+      <c r="F28" s="45">
         <v>0.13</v>
       </c>
-      <c r="G28" s="61">
+      <c r="G28" s="46">
         <f>E28*13%</f>
         <v>1324709.75</v>
       </c>
-      <c r="H28" s="48">
+      <c r="H28" s="56">
         <f>E28+G28</f>
         <v>11514784.75</v>
       </c>
@@ -1172,14 +1184,14 @@
       <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="48"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="56"/>
       <c r="I29" s="8"/>
       <c r="J29" s="37"/>
       <c r="K29" s="8"/>
@@ -1234,7 +1246,7 @@
         <v>14673492.4</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="36"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1250,8 +1262,9 @@
         <f>L32*70%</f>
         <v>10271444.68</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="S33" s="8"/>
+    </row>
+    <row r="34" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="36"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1266,8 +1279,9 @@
       <c r="L34" s="38">
         <v>7998800</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S34" s="8"/>
+    </row>
+    <row r="35" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="36"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1283,14 +1297,17 @@
         <f>L34*18%</f>
         <v>1439784</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S35" s="8">
+        <v>11514785</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="30"/>
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="56"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="41"/>
       <c r="E36" s="16">
         <f>SUM(E28:E34)</f>
         <v>10190075</v>
@@ -1311,8 +1328,9 @@
         <f>L34*4%</f>
         <v>319952</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="S36" s="63"/>
+    </row>
+    <row r="37" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1324,16 +1342,27 @@
         <f>L36+L35+L34</f>
         <v>9758536</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R37" s="64">
+        <v>0.08</v>
+      </c>
+      <c r="S37" s="8">
+        <f>S35*8%</f>
+        <v>921182.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="K38" s="38"/>
       <c r="L38" s="38"/>
-    </row>
-    <row r="39" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="S38" s="8"/>
+    </row>
+    <row r="39" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
       <c r="B39" s="3"/>
       <c r="C39" s="15"/>
@@ -1342,16 +1371,27 @@
         <v>27</v>
       </c>
       <c r="L39" s="38"/>
-    </row>
-    <row r="40" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R39" s="64">
+        <v>0.2</v>
+      </c>
+      <c r="S39" s="8">
+        <f>1324710*20%</f>
+        <v>264942</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="K40" s="38"/>
       <c r="L40" s="38"/>
-    </row>
-    <row r="41" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="S40" s="8"/>
+    </row>
+    <row r="41" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="6"/>
@@ -1360,8 +1400,12 @@
       <c r="L41" s="38">
         <v>7998800</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="S41" s="8">
+        <f>S35-S37-S39</f>
+        <v>10328660.199999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1373,8 +1417,18 @@
         <f>L41*13%</f>
         <v>1039844</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="S42" s="8"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S43" s="8"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S44" s="8"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S45" s="8"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E46" s="22"/>
       <c r="K46" s="1" t="s">
         <v>29</v>
@@ -1384,7 +1438,7 @@
         <v>1324709.75</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K47" s="1" t="s">
         <v>30</v>
       </c>
@@ -1393,7 +1447,7 @@
         <v>1039844</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K48" s="1" t="s">
         <v>31</v>
       </c>
@@ -1410,11 +1464,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B18:C18"/>
@@ -1431,6 +1480,11 @@
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B26:D27"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
